--- a/srcript/reg_tab/Tables/L3.xlsx
+++ b/srcript/reg_tab/Tables/L3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="6660" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="6660" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="版本说明" sheetId="2" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="L3_IIF_t" sheetId="21" r:id="rId17"/>
     <sheet name="VRF_t" sheetId="22" r:id="rId18"/>
     <sheet name="VFI_t" sheetId="23" r:id="rId19"/>
+    <sheet name="EGR_L3_IP_CHANGE_t" sheetId="30" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="556">
   <si>
     <t>68:67</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1881,6 +1882,73 @@
   <si>
     <t>INDEX_DVP</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGR_L3_IP_CHANGE_t</t>
+  </si>
+  <si>
+    <t>PROTOCOL_ENABLE</t>
+  </si>
+  <si>
+    <t>PROTOCOL</t>
+  </si>
+  <si>
+    <t>TTL_ENABLE</t>
+  </si>
+  <si>
+    <t>DIP_ENBABLE</t>
+  </si>
+  <si>
+    <t>SIP_ENABLE</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>82:75</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>73:66</t>
+  </si>
+  <si>
+    <t>64:33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>Protocol change enable</t>
+  </si>
+  <si>
+    <t>PROTOCOL value</t>
+  </si>
+  <si>
+    <t>TTL change enable</t>
+  </si>
+  <si>
+    <t>TTL value</t>
+  </si>
+  <si>
+    <t>DIP change enable</t>
+  </si>
+  <si>
+    <t>DIP value</t>
+  </si>
+  <si>
+    <t>SIP change enable</t>
+  </si>
+  <si>
+    <t>SIP value</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2018,7 +2086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2102,6 +2170,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2111,7 +2203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2231,6 +2323,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6205,8 +6306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7074,6 +7175,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="36">
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>512</v>
+      </c>
+      <c r="B2" s="2">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="41"/>
+      <c r="B5" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="41"/>
+      <c r="B6" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41"/>
+      <c r="B7" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="41"/>
+      <c r="B8" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="41"/>
+      <c r="B9" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="41"/>
+      <c r="B10" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="42"/>
+      <c r="B11" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="C28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="C29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"HASH,DIRECT,TCAM"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
